--- a/bedv_Individual_project_python/ResultHard.xlsx
+++ b/bedv_Individual_project_python/ResultHard.xlsx
@@ -1,55 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20393"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_bedny\source\repos\bedv_Individual_project_python\bedv_Individual_project_python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88AE4FB-AD82-4AE1-9699-A9CC00AFF75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hard" sheetId="1" r:id="rId1"/>
+    <sheet name="hard" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>+7 (935) 653-32-78</t>
-  </si>
-  <si>
-    <t>Гармокацкий С.Л</t>
-  </si>
-  <si>
-    <t>Нитрит (моча)</t>
-  </si>
-  <si>
-    <t>Положительный</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,28 +47,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -127,9 +165,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,27 +199,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,36 +408,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>+7 (935) 653-32-78</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Гармокацкий С.Л</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Нитрит (моча)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Положительный</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>+7 (935) 653-32-78</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Гармокацкий С.Л</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Щелочная фосфатаза</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Понижен</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>